--- a/public/files/template/inventory/pengadaan_barang.xlsx
+++ b/public/files/template/inventory/pengadaan_barang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\epuskesmas_prog\dev\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nama Puskesmas</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>[a.nomor_kwitansi]</t>
+  </si>
+  <si>
+    <t>[a.tgl_kwitansi]</t>
+  </si>
+  <si>
+    <t>No. Kwitansi</t>
+  </si>
+  <si>
+    <t>Tanggal Kwitansi</t>
   </si>
 </sst>
 </file>
@@ -150,25 +162,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -187,15 +205,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B9:G10" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="B9:G10"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="No. Kontrak" dataDxfId="6"/>
-    <tableColumn id="2" name="Tanggal  Pengadaan" dataDxfId="5"/>
-    <tableColumn id="3" name="Status Pengadaan" dataDxfId="4"/>
-    <tableColumn id="4" name="Jumlah Unit" dataDxfId="3"/>
-    <tableColumn id="5" name="Total Harga" dataDxfId="2"/>
-    <tableColumn id="6" name="Keterangan" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B9:I10" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="B9:I10"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No. Kontrak" dataDxfId="7"/>
+    <tableColumn id="8" name="No. Kwitansi" dataDxfId="0"/>
+    <tableColumn id="7" name="Tanggal Kwitansi" dataDxfId="1"/>
+    <tableColumn id="2" name="Tanggal  Pengadaan" dataDxfId="6"/>
+    <tableColumn id="3" name="Status Pengadaan" dataDxfId="5"/>
+    <tableColumn id="4" name="Jumlah Unit" dataDxfId="4"/>
+    <tableColumn id="5" name="Total Harga" dataDxfId="3"/>
+    <tableColumn id="6" name="Keterangan" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,76 +508,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:G10"/>
+  <dimension ref="B5:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="11" customWidth="1"/>
+    <col min="2" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
